--- a/Hardware/Transmitter/MFG/BOM/Transmitter_BOM_RevA.xlsx
+++ b/Hardware/Transmitter/MFG/BOM/Transmitter_BOM_RevA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franci\Documents\SCHOOL\EENG-4315-031\Prototype\Transmitter\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franci\Documents\GitHub\HEC_2_senior_design\Hardware\Transmitter\MFG\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A76E93-F17E-453A-87CB-123E93E07EA7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B95E94-9B2C-4284-A7B8-994EB12B44CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="425">
   <si>
     <t>ITEM</t>
   </si>
@@ -1303,6 +1303,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>VERIFIED BY:</t>
+  </si>
+  <si>
+    <t>Franci Franulovic</t>
   </si>
 </sst>
 </file>
@@ -2547,7 +2553,7 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E87" sqref="A87:XFD87"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2564,7 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="41.140625" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
@@ -2590,7 +2596,7 @@
         <v>421</v>
       </c>
       <c r="P1" s="70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="23"/>
     </row>
@@ -2656,8 +2662,12 @@
         <v>422</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>424</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="14"/>
@@ -2798,11 +2808,11 @@
       </c>
       <c r="L8" s="42">
         <f>B8*$P$1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" s="43">
         <f>K8*L8</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N8" s="11" t="s">
         <v>172</v>
@@ -2851,11 +2861,11 @@
       </c>
       <c r="L9" s="34">
         <f t="shared" ref="L9:L72" si="0">B9*$P$1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" ref="M9:M72" si="1">K9*L9</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>172</v>
@@ -2904,11 +2914,11 @@
       </c>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="1"/>
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>172</v>
@@ -2957,11 +2967,11 @@
       </c>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M11" s="9">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>172</v>
@@ -3010,11 +3020,11 @@
       </c>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="1"/>
-        <v>4.16</v>
+        <v>2.08</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>172</v>
@@ -3063,11 +3073,11 @@
       </c>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>2.8</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>172</v>
@@ -3116,11 +3126,11 @@
       </c>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>172</v>
@@ -3169,11 +3179,11 @@
       </c>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="1"/>
-        <v>4.6399999999999997</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>172</v>
@@ -3222,11 +3232,11 @@
       </c>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="1"/>
-        <v>8.0640000000000001</v>
+        <v>4.032</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>172</v>
@@ -3275,11 +3285,11 @@
       </c>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="1"/>
-        <v>0.92</v>
+        <v>0.46</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>172</v>
@@ -3326,7 +3336,7 @@
       <c r="K18" s="17"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="1"/>
@@ -3379,11 +3389,11 @@
       </c>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="1"/>
-        <v>1.6800000000000002</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>172</v>
@@ -3432,11 +3442,11 @@
       </c>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="1"/>
-        <v>1.72</v>
+        <v>0.86</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>172</v>
@@ -3485,11 +3495,11 @@
       </c>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="1"/>
-        <v>3.12</v>
+        <v>1.56</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>172</v>
@@ -3538,11 +3548,11 @@
       </c>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M22" s="9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>172</v>
@@ -3591,11 +3601,11 @@
       </c>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="1"/>
-        <v>20.399999999999999</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>172</v>
@@ -3644,11 +3654,11 @@
       </c>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="1"/>
-        <v>0.88</v>
+        <v>0.44</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>172</v>
@@ -3697,11 +3707,11 @@
       </c>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="1"/>
-        <v>4.68</v>
+        <v>2.34</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>172</v>
@@ -3750,11 +3760,11 @@
       </c>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" s="9">
         <f t="shared" si="1"/>
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>172</v>
@@ -3803,11 +3813,11 @@
       </c>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="1"/>
-        <v>5.04</v>
+        <v>2.52</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>172</v>
@@ -3856,11 +3866,11 @@
       </c>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>172</v>
@@ -3909,11 +3919,11 @@
       </c>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M29" s="9">
         <f t="shared" si="1"/>
-        <v>3.68</v>
+        <v>1.84</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>172</v>
@@ -3962,11 +3972,11 @@
       </c>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="1"/>
-        <v>2.16</v>
+        <v>1.08</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>172</v>
@@ -4015,11 +4025,11 @@
       </c>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>172</v>
@@ -4068,11 +4078,11 @@
       </c>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" s="9">
         <f t="shared" si="1"/>
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>172</v>
@@ -4121,11 +4131,11 @@
       </c>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="1"/>
-        <v>8.3999999999999986</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>172</v>
@@ -4174,11 +4184,11 @@
       </c>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="1"/>
-        <v>2.56</v>
+        <v>1.28</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>172</v>
@@ -4227,11 +4237,11 @@
       </c>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="1"/>
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>172</v>
@@ -4280,11 +4290,11 @@
       </c>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="1"/>
-        <v>1.72</v>
+        <v>0.86</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>172</v>
@@ -4333,11 +4343,11 @@
       </c>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>172</v>
@@ -4435,11 +4445,11 @@
       </c>
       <c r="L39" s="67">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" s="68">
         <f t="shared" si="1"/>
-        <v>2.96</v>
+        <v>1.48</v>
       </c>
       <c r="N39" s="63"/>
       <c r="O39" s="64" t="s">
@@ -4484,11 +4494,11 @@
       </c>
       <c r="L40" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="1"/>
-        <v>8.68</v>
+        <v>4.34</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>172</v>
@@ -4537,11 +4547,11 @@
       </c>
       <c r="L41" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>172</v>
@@ -4588,7 +4598,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="1"/>
@@ -4641,11 +4651,11 @@
       </c>
       <c r="L43" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="1"/>
-        <v>1.1599999999999999</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>172</v>
@@ -4694,11 +4704,11 @@
       </c>
       <c r="L44" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="1"/>
-        <v>1.92</v>
+        <v>0.96</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>172</v>
@@ -4747,11 +4757,11 @@
       </c>
       <c r="L45" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="1"/>
-        <v>1.92</v>
+        <v>0.96</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>172</v>
@@ -4800,11 +4810,11 @@
       </c>
       <c r="L46" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>172</v>
@@ -4853,11 +4863,11 @@
       </c>
       <c r="L47" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="1"/>
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>172</v>
@@ -4906,11 +4916,11 @@
       </c>
       <c r="L48" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M48" s="9">
         <f t="shared" si="1"/>
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>172</v>
@@ -4957,7 +4967,7 @@
       <c r="K49" s="17"/>
       <c r="L49" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M49" s="9">
         <f t="shared" si="1"/>
@@ -5008,7 +5018,7 @@
       <c r="K50" s="17"/>
       <c r="L50" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M50" s="9">
         <f t="shared" si="1"/>
@@ -5061,11 +5071,11 @@
       </c>
       <c r="L51" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" s="9">
         <f t="shared" si="1"/>
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>172</v>
@@ -5114,11 +5124,11 @@
       </c>
       <c r="L52" s="34">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M52" s="9">
         <f t="shared" si="1"/>
-        <v>22.080000000000002</v>
+        <v>11.040000000000001</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>172</v>
@@ -5167,11 +5177,11 @@
       </c>
       <c r="L53" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M53" s="9">
         <f t="shared" si="1"/>
-        <v>3.84</v>
+        <v>1.92</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>172</v>
@@ -5220,11 +5230,11 @@
       </c>
       <c r="L54" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M54" s="9">
         <f t="shared" si="1"/>
-        <v>57.68</v>
+        <v>28.84</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>172</v>
@@ -5273,11 +5283,11 @@
       </c>
       <c r="L55" s="34">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M55" s="9">
         <f t="shared" si="1"/>
-        <v>12.16</v>
+        <v>6.08</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>172</v>
@@ -5326,11 +5336,11 @@
       </c>
       <c r="L56" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" s="9">
         <f t="shared" si="1"/>
-        <v>10.6</v>
+        <v>5.3</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>172</v>
@@ -5379,11 +5389,11 @@
       </c>
       <c r="L57" s="34">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M57" s="9">
         <f t="shared" si="1"/>
-        <v>6.9599999999999991</v>
+        <v>3.4799999999999995</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>172</v>
@@ -5432,11 +5442,11 @@
       </c>
       <c r="L58" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M58" s="9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>172</v>
@@ -5485,11 +5495,11 @@
       </c>
       <c r="L59" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59" s="9">
         <f t="shared" si="1"/>
-        <v>14.16</v>
+        <v>7.08</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>172</v>
@@ -5538,11 +5548,11 @@
       </c>
       <c r="L60" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M60" s="9">
         <f t="shared" si="1"/>
-        <v>29.28</v>
+        <v>14.64</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>172</v>
@@ -5591,11 +5601,11 @@
       </c>
       <c r="L61" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M61" s="9">
         <f t="shared" si="1"/>
-        <v>20.64</v>
+        <v>10.32</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>172</v>
@@ -5644,11 +5654,11 @@
       </c>
       <c r="L62" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" s="9">
         <f t="shared" si="1"/>
-        <v>8.92</v>
+        <v>4.46</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>172</v>
@@ -5697,11 +5707,11 @@
       </c>
       <c r="L63" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M63" s="9">
         <f t="shared" si="1"/>
-        <v>5.24</v>
+        <v>2.62</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>172</v>
@@ -5750,11 +5760,11 @@
       </c>
       <c r="L64" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" s="9">
         <f t="shared" si="1"/>
-        <v>18.079999999999998</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>172</v>
@@ -5803,11 +5813,11 @@
       </c>
       <c r="L65" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M65" s="9">
         <f t="shared" si="1"/>
-        <v>18.079999999999998</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>172</v>
@@ -5856,11 +5866,11 @@
       </c>
       <c r="L66" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M66" s="9">
         <f t="shared" si="1"/>
-        <v>1.88</v>
+        <v>0.94</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>172</v>
@@ -5909,11 +5919,11 @@
       </c>
       <c r="L67" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M67" s="9">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>172</v>
@@ -5962,11 +5972,11 @@
       </c>
       <c r="L68" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68" s="9">
         <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>172</v>
@@ -6015,11 +6025,11 @@
       </c>
       <c r="L69" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M69" s="9">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>172</v>
@@ -6068,11 +6078,11 @@
       </c>
       <c r="L70" s="34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M70" s="9">
         <f t="shared" si="1"/>
-        <v>3.76</v>
+        <v>1.88</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>172</v>
@@ -6121,11 +6131,11 @@
       </c>
       <c r="L71" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" s="9">
         <f t="shared" si="1"/>
-        <v>32.44</v>
+        <v>16.22</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>172</v>
@@ -6174,11 +6184,11 @@
       </c>
       <c r="L72" s="34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M72" s="9">
         <f t="shared" si="1"/>
-        <v>1.76</v>
+        <v>0.88</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>172</v>
@@ -6227,11 +6237,11 @@
       </c>
       <c r="L73" s="34">
         <f t="shared" ref="L73:L84" si="2">B73*$P$1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M73" s="9">
         <f t="shared" ref="M73:M84" si="3">K73*L73</f>
-        <v>2.52</v>
+        <v>1.26</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>172</v>
@@ -6280,11 +6290,11 @@
       </c>
       <c r="L74" s="34">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M74" s="9">
         <f t="shared" si="3"/>
-        <v>7.44</v>
+        <v>3.72</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>172</v>
@@ -6333,11 +6343,11 @@
       </c>
       <c r="L75" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M75" s="9">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>172</v>
@@ -6386,11 +6396,11 @@
       </c>
       <c r="L76" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M76" s="9">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>172</v>
@@ -6439,11 +6449,11 @@
       </c>
       <c r="L77" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M77" s="9">
         <f t="shared" si="3"/>
-        <v>3.72</v>
+        <v>1.86</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>172</v>
@@ -6492,11 +6502,11 @@
       </c>
       <c r="L78" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M78" s="9">
         <f t="shared" si="3"/>
-        <v>5.16</v>
+        <v>2.58</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>172</v>
@@ -6545,11 +6555,11 @@
       </c>
       <c r="L79" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M79" s="9">
         <f t="shared" si="3"/>
-        <v>9.0399999999999991</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>172</v>
@@ -6598,11 +6608,11 @@
       </c>
       <c r="L80" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M80" s="9">
         <f t="shared" si="3"/>
-        <v>9.64</v>
+        <v>4.82</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>172</v>
@@ -6651,11 +6661,11 @@
       </c>
       <c r="L81" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M81" s="9">
         <f t="shared" si="3"/>
-        <v>10.28</v>
+        <v>5.14</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>172</v>
@@ -6704,11 +6714,11 @@
       </c>
       <c r="L82" s="34">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M82" s="9">
         <f t="shared" si="3"/>
-        <v>13.12</v>
+        <v>6.56</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>172</v>
@@ -6757,11 +6767,11 @@
       </c>
       <c r="L83" s="34">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M83" s="9">
         <f t="shared" si="3"/>
-        <v>29.52</v>
+        <v>14.76</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>172</v>
@@ -6810,11 +6820,11 @@
       </c>
       <c r="L84" s="50">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M84" s="51">
         <f t="shared" si="3"/>
-        <v>5.92</v>
+        <v>2.96</v>
       </c>
       <c r="N84" s="31" t="s">
         <v>172</v>
@@ -6835,7 +6845,7 @@
       </c>
       <c r="M85" s="55">
         <f>SUM(M8:M84)</f>
-        <v>515.10399999999993</v>
+        <v>257.55199999999996</v>
       </c>
     </row>
   </sheetData>
